--- a/student db.xlsx
+++ b/student db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C29F43-883D-411E-B958-4298C9F85ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B28729B-451B-44F0-812E-2D5812D065CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" tabRatio="718" activeTab="2" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" activeTab="3" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
   </bookViews>
   <sheets>
     <sheet name="11-A" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="373">
   <si>
     <t>Name</t>
   </si>
@@ -966,6 +966,201 @@
   </si>
   <si>
     <t>Sushila Jain</t>
+  </si>
+  <si>
+    <t>Rajesh Menon</t>
+  </si>
+  <si>
+    <t>Anitha Menon</t>
+  </si>
+  <si>
+    <t>Arun Pillai</t>
+  </si>
+  <si>
+    <t>Deepa Pillai</t>
+  </si>
+  <si>
+    <t>Ramesh Deshmukh</t>
+  </si>
+  <si>
+    <t>Priya Deshmukh</t>
+  </si>
+  <si>
+    <t>Sandeep Roy</t>
+  </si>
+  <si>
+    <t>Kavita Roy</t>
+  </si>
+  <si>
+    <t>Anil Tiwari</t>
+  </si>
+  <si>
+    <t>Sunita Tiwari</t>
+  </si>
+  <si>
+    <t>Arvind Kaul</t>
+  </si>
+  <si>
+    <t>Meera Kaul</t>
+  </si>
+  <si>
+    <t>Rohan Bajaj</t>
+  </si>
+  <si>
+    <t>Anjali Bajaj</t>
+  </si>
+  <si>
+    <t>Amit Goel</t>
+  </si>
+  <si>
+    <t>Preeti Goel</t>
+  </si>
+  <si>
+    <t>Rahul Sinha</t>
+  </si>
+  <si>
+    <t>Neha Sinha</t>
+  </si>
+  <si>
+    <t>Prakash Reddy</t>
+  </si>
+  <si>
+    <t>Subrata Chatterjee</t>
+  </si>
+  <si>
+    <t>Smita Chatterjee</t>
+  </si>
+  <si>
+    <t>Venkatesh Rao</t>
+  </si>
+  <si>
+    <t>Sushila Rao</t>
+  </si>
+  <si>
+    <t>Sanjay Nair</t>
+  </si>
+  <si>
+    <t>Meena Nair</t>
+  </si>
+  <si>
+    <t>Rajiv Kapoor</t>
+  </si>
+  <si>
+    <t>Vinu Menon</t>
+  </si>
+  <si>
+    <t>Sreeja Menon</t>
+  </si>
+  <si>
+    <t>Harish Iyer</t>
+  </si>
+  <si>
+    <t>Rajesh Bhat</t>
+  </si>
+  <si>
+    <t>Manoj Mishra</t>
+  </si>
+  <si>
+    <t>Sunita Mishra</t>
+  </si>
+  <si>
+    <t>Harish Desai</t>
+  </si>
+  <si>
+    <t>Neelam Desai</t>
+  </si>
+  <si>
+    <t>Sanjay Kulkarni</t>
+  </si>
+  <si>
+    <t>Aarti Kulkarni</t>
+  </si>
+  <si>
+    <t>Manish Joshi</t>
+  </si>
+  <si>
+    <t>Priya Joshi</t>
+  </si>
+  <si>
+    <t>Arun Verma</t>
+  </si>
+  <si>
+    <t>Sunita Verma</t>
+  </si>
+  <si>
+    <t>Rajesh Thakur</t>
+  </si>
+  <si>
+    <t>Vinod Saxena</t>
+  </si>
+  <si>
+    <t>Meenal Saxena</t>
+  </si>
+  <si>
+    <t>Amit Kaul</t>
+  </si>
+  <si>
+    <t>Neha Kaul</t>
+  </si>
+  <si>
+    <t>Arvind Das</t>
+  </si>
+  <si>
+    <t>Sunita Das</t>
+  </si>
+  <si>
+    <t>Rajeev Mehta</t>
+  </si>
+  <si>
+    <t>Pooja Mehta</t>
+  </si>
+  <si>
+    <t>Sunil Tiwari</t>
+  </si>
+  <si>
+    <t>Suman Tiwari</t>
+  </si>
+  <si>
+    <t>Vinay Choudhary</t>
+  </si>
+  <si>
+    <t>Shilpa Choudhary</t>
+  </si>
+  <si>
+    <t>Rakesh Pandey</t>
+  </si>
+  <si>
+    <t>Geeta Pandey</t>
+  </si>
+  <si>
+    <t>Rajesh Mahajan</t>
+  </si>
+  <si>
+    <t>Sunita Mahajan</t>
+  </si>
+  <si>
+    <t>Harish Bansal</t>
+  </si>
+  <si>
+    <t>Rekha Bansal</t>
+  </si>
+  <si>
+    <t>Raghav Pillai</t>
+  </si>
+  <si>
+    <t>Anjali Pillai</t>
+  </si>
+  <si>
+    <t>Rajeev Singh</t>
+  </si>
+  <si>
+    <t>Neelam Singh</t>
+  </si>
+  <si>
+    <t>Arun Ahuja</t>
+  </si>
+  <si>
+    <t>Sushila Ahuja</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1067,13 +1262,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2748,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E49DC7D-BFF7-446A-AAB7-1821DE4A6CF9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2951,7 @@
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
@@ -3246,6 +3439,12 @@
       <c r="D24" s="6">
         <v>38306</v>
       </c>
+      <c r="E24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -3260,6 +3459,12 @@
       <c r="D25" s="6">
         <v>38424</v>
       </c>
+      <c r="E25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -3274,6 +3479,12 @@
       <c r="D26" s="6">
         <v>38541</v>
       </c>
+      <c r="E26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -3288,6 +3499,12 @@
       <c r="D27" s="6">
         <v>38785</v>
       </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -3302,6 +3519,12 @@
       <c r="D28" s="6">
         <v>38461</v>
       </c>
+      <c r="E28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -3316,6 +3539,12 @@
       <c r="D29" s="6">
         <v>38992</v>
       </c>
+      <c r="E29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -3330,6 +3559,12 @@
       <c r="D30" s="6">
         <v>38588</v>
       </c>
+      <c r="E30" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -3343,6 +3578,12 @@
       </c>
       <c r="D31" s="6">
         <v>38074</v>
+      </c>
+      <c r="E31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3354,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16355DC-1DC5-4802-B0E7-F784DF5E645A}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,8 +3605,8 @@
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3412,6 +3653,12 @@
       <c r="D2" s="6">
         <v>38575</v>
       </c>
+      <c r="E2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -3426,6 +3673,12 @@
       <c r="D3" s="6">
         <v>38751</v>
       </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -3440,6 +3693,12 @@
       <c r="D4" s="6">
         <v>39078</v>
       </c>
+      <c r="E4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -3454,6 +3713,12 @@
       <c r="D5" s="6">
         <v>38632</v>
       </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -3468,6 +3733,12 @@
       <c r="D6" s="6">
         <v>38124</v>
       </c>
+      <c r="E6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -3482,6 +3753,12 @@
       <c r="D7" s="6">
         <v>38364</v>
       </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -3496,6 +3773,12 @@
       <c r="D8" s="6">
         <v>38969</v>
       </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -3510,6 +3793,12 @@
       <c r="D9" s="6">
         <v>38313</v>
       </c>
+      <c r="E9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -3524,6 +3813,12 @@
       <c r="D10" s="6">
         <v>38791</v>
       </c>
+      <c r="E10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -3538,6 +3833,12 @@
       <c r="D11" s="6">
         <v>38556</v>
       </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -3552,6 +3853,12 @@
       <c r="D12" s="6">
         <v>38141</v>
       </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -3566,6 +3873,12 @@
       <c r="D13" s="6">
         <v>38481</v>
       </c>
+      <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -3580,6 +3893,12 @@
       <c r="D14" s="6">
         <v>38825</v>
       </c>
+      <c r="E14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -3594,6 +3913,12 @@
       <c r="D15" s="6">
         <v>38715</v>
       </c>
+      <c r="E15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -3628,6 +3953,12 @@
       <c r="D17" s="6">
         <v>38444</v>
       </c>
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -3642,6 +3973,12 @@
       <c r="D18" s="6">
         <v>39013</v>
       </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -3656,6 +3993,12 @@
       <c r="D19" s="6">
         <v>38016</v>
       </c>
+      <c r="E19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -3670,6 +4013,12 @@
       <c r="D20" s="6">
         <v>38417</v>
       </c>
+      <c r="E20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -3704,6 +4053,12 @@
       <c r="D22" s="6">
         <v>38028</v>
       </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -3718,6 +4073,12 @@
       <c r="D23" s="6">
         <v>38660</v>
       </c>
+      <c r="E23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -3732,6 +4093,12 @@
       <c r="D24" s="6">
         <v>38242</v>
       </c>
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -3746,6 +4113,12 @@
       <c r="D25" s="6">
         <v>38842</v>
       </c>
+      <c r="E25" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -3760,6 +4133,12 @@
       <c r="D26" s="6">
         <v>38741</v>
       </c>
+      <c r="E26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -3774,6 +4153,12 @@
       <c r="D27" s="6">
         <v>38616</v>
       </c>
+      <c r="E27" t="s">
+        <v>363</v>
+      </c>
+      <c r="F27" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -3788,6 +4173,12 @@
       <c r="D28" s="6">
         <v>38882</v>
       </c>
+      <c r="E28" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -3802,6 +4193,12 @@
       <c r="D29" s="6">
         <v>38410</v>
       </c>
+      <c r="E29" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -3816,6 +4213,12 @@
       <c r="D30" s="6">
         <v>39037</v>
       </c>
+      <c r="E30" t="s">
+        <v>369</v>
+      </c>
+      <c r="F30" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -3829,6 +4232,12 @@
       </c>
       <c r="D31" s="6">
         <v>38261</v>
+      </c>
+      <c r="E31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3852,14 +4261,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3990,14 +4399,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4149,7 +4558,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E1AA0-2943-4FDC-A60A-436E5FC609CE}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
@@ -4164,14 +4573,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4312,9 +4721,6 @@
       <c r="F8" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4326,7 +4732,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65A83AE-18F7-4FA1-8844-1BBBEA111F70}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -4340,17 +4746,17 @@
     <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4390,7 +4796,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4410,7 +4816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4430,7 +4836,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4450,7 +4856,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4460,7 +4866,7 @@
       <c r="C7" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -4469,9 +4875,8 @@
       <c r="F7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4516,14 +4921,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4581,7 +4986,7 @@
       <c r="E4" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4661,7 +5066,7 @@
       <c r="E8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="2" t="s">
         <v>273</v>
       </c>
     </row>

--- a/student db.xlsx
+++ b/student db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2963DA75-18B3-40DC-8836-2E2BECE9EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26487696-DA51-46BA-A557-1D80B9F13DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" activeTab="3" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
   </bookViews>
   <sheets>
     <sheet name="11-A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1456,6 +1456,21 @@
   </si>
   <si>
     <t>sahuja@gmail.com</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Student Email Address</t>
+  </si>
+  <si>
+    <t>Student Phone Number</t>
+  </si>
+  <si>
+    <t>Mother's Email Address</t>
+  </si>
+  <si>
+    <t>Mother's Phone Number</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1510,7 +1525,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1835,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FEEA0-120C-493B-975F-76247FE4532E}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,9 +1863,12 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1883,6 +1901,21 @@
       </c>
       <c r="J1" t="s">
         <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N1" t="s">
+        <v>476</v>
+      </c>
+      <c r="O1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2720,6 +2753,7 @@
     <hyperlink ref="G29" r:id="rId9" display="mailto:abajaj@yahoo.com" xr:uid="{D2C34E59-957E-4163-8A80-13661DF2C2DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4420,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16355DC-1DC5-4802-B0E7-F784DF5E645A}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/student db.xlsx
+++ b/student db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26487696-DA51-46BA-A557-1D80B9F13DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF138DD8-C088-4C70-B707-48559B67BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="734">
   <si>
     <t>Name</t>
   </si>
@@ -69,18 +69,6 @@
     <t>Attendace Percentage</t>
   </si>
   <si>
-    <t>Suncity</t>
-  </si>
-  <si>
-    <t>Kali mandir</t>
-  </si>
-  <si>
-    <t>Old city</t>
-  </si>
-  <si>
-    <t>uppal</t>
-  </si>
-  <si>
     <t>Aarav Sharma</t>
   </si>
   <si>
@@ -1107,12 +1095,6 @@
     <t>Sushila Ahuja</t>
   </si>
   <si>
-    <t>Parent Mobile Number</t>
-  </si>
-  <si>
-    <t>Parent Email Address</t>
-  </si>
-  <si>
     <t>rajsharma@gmail.com</t>
   </si>
   <si>
@@ -1471,6 +1453,792 @@
   </si>
   <si>
     <t>Mother's Phone Number</t>
+  </si>
+  <si>
+    <t>Father Email Address</t>
+  </si>
+  <si>
+    <t>Father Mobile Number</t>
+  </si>
+  <si>
+    <t>asharma@outlook.com</t>
+  </si>
+  <si>
+    <t>sgupta@hotmail.com</t>
+  </si>
+  <si>
+    <t>arao@hotmail.com</t>
+  </si>
+  <si>
+    <t>nmehta@gmail.com</t>
+  </si>
+  <si>
+    <t>snair@hotmail.com</t>
+  </si>
+  <si>
+    <t>piyer@hotmail.com</t>
+  </si>
+  <si>
+    <t>lreddy@outlook.com</t>
+  </si>
+  <si>
+    <t>njoshi@hotmail.com</t>
+  </si>
+  <si>
+    <t>skulkarni@hotmail.com</t>
+  </si>
+  <si>
+    <t>ajain@hotmail.com</t>
+  </si>
+  <si>
+    <t>rmalhotra@yahoo.com</t>
+  </si>
+  <si>
+    <t>skapoor@gmail.com</t>
+  </si>
+  <si>
+    <t>lmenon@outlook.com</t>
+  </si>
+  <si>
+    <t>sroy@outlook.com</t>
+  </si>
+  <si>
+    <t>psingh@outlook.com</t>
+  </si>
+  <si>
+    <t>sdeshmukh@outlook.com</t>
+  </si>
+  <si>
+    <t>nthakur@gmail.com</t>
+  </si>
+  <si>
+    <t>sbhat@yahoo.com</t>
+  </si>
+  <si>
+    <t>schoudhary@yahoo.com</t>
+  </si>
+  <si>
+    <t>kaggarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>nverma@yahoo.com</t>
+  </si>
+  <si>
+    <t>sgoel@outlook.com</t>
+  </si>
+  <si>
+    <t>psaxena@hotmail.com</t>
+  </si>
+  <si>
+    <t>akhanna@yahoo.com</t>
+  </si>
+  <si>
+    <t>pbajaj@yahoo.com</t>
+  </si>
+  <si>
+    <t>mtiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>nkaul@yahoo.com</t>
+  </si>
+  <si>
+    <t>akulkarni@gmail.com</t>
+  </si>
+  <si>
+    <t>spatil@outlook.com</t>
+  </si>
+  <si>
+    <t>rnair@outlook.com</t>
+  </si>
+  <si>
+    <t>rsharma@yahoo.com</t>
+  </si>
+  <si>
+    <t>sgupta@gmail.com</t>
+  </si>
+  <si>
+    <t>riyer@outlook.com</t>
+  </si>
+  <si>
+    <t>rdas@hotmail.com</t>
+  </si>
+  <si>
+    <t>skapoor@outlook.com</t>
+  </si>
+  <si>
+    <t>pmenon@yahoo.com</t>
+  </si>
+  <si>
+    <t>pjain@outlook.com</t>
+  </si>
+  <si>
+    <t>amalhotra@gmail.com</t>
+  </si>
+  <si>
+    <t>saggarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>mmishra@gmail.com</t>
+  </si>
+  <si>
+    <t>sbhat@gmail.com</t>
+  </si>
+  <si>
+    <t>kthakur@gmail.com</t>
+  </si>
+  <si>
+    <t>achoudhary@hotmail.com</t>
+  </si>
+  <si>
+    <t>akaul@yahoo.com</t>
+  </si>
+  <si>
+    <t>pgoel@hotmail.com</t>
+  </si>
+  <si>
+    <t>akhanna@hotmail.com</t>
+  </si>
+  <si>
+    <t>pbajaj@gmail.com</t>
+  </si>
+  <si>
+    <t>ntiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkulkarni@outlook.com</t>
+  </si>
+  <si>
+    <t>snehalpatil@yahoo.com</t>
+  </si>
+  <si>
+    <t>vikramnair@gmail.com</t>
+  </si>
+  <si>
+    <t>ishitareddy@outlook.com</t>
+  </si>
+  <si>
+    <t>ravimehta@hotmail.com</t>
+  </si>
+  <si>
+    <t>priyasharma@yahoo.com</t>
+  </si>
+  <si>
+    <t>manishgupta@hotmail.com</t>
+  </si>
+  <si>
+    <t>nehaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>akshayrao@yahoo.com</t>
+  </si>
+  <si>
+    <t>komaljoshi@outlook.com</t>
+  </si>
+  <si>
+    <t>ankitdas@yahoo.com</t>
+  </si>
+  <si>
+    <t>swatikapoor@outlook.com</t>
+  </si>
+  <si>
+    <t>sahilmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>nikitajain@hotmail.com</t>
+  </si>
+  <si>
+    <t>raghavmalhotra@gmail.com</t>
+  </si>
+  <si>
+    <t>divyaaggarwal@yahoo.com</t>
+  </si>
+  <si>
+    <t>arvindmishra@outlook.com</t>
+  </si>
+  <si>
+    <t>rituverma@outlook.com</t>
+  </si>
+  <si>
+    <t>abhinavbhat@hotmail.com</t>
+  </si>
+  <si>
+    <t>trishathakur@yahoo.com</t>
+  </si>
+  <si>
+    <t>shivamchoudhary@hotmail.com</t>
+  </si>
+  <si>
+    <t>pallavisaxena@hotmail.com</t>
+  </si>
+  <si>
+    <t>amansingh@outlook.com</t>
+  </si>
+  <si>
+    <t>kirankaul@outlook.com</t>
+  </si>
+  <si>
+    <t>esharoy@outlook.com</t>
+  </si>
+  <si>
+    <t>yuvrajgoel@outlook.com</t>
+  </si>
+  <si>
+    <t>roshnideshmukh@yahoo.com</t>
+  </si>
+  <si>
+    <t>kunalkhanna@yahoo.com</t>
+  </si>
+  <si>
+    <t>tanishabajaj@outlook.com</t>
+  </si>
+  <si>
+    <t>varuntiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>aditisharma@outlook.com</t>
+  </si>
+  <si>
+    <t>snehagupta@hotmail.com</t>
+  </si>
+  <si>
+    <t>sunitapatel@outlook.com</t>
+  </si>
+  <si>
+    <t>aartirao@yahoo.com</t>
+  </si>
+  <si>
+    <t>neelammehta@hotmail.com</t>
+  </si>
+  <si>
+    <t>shalininair@yahoo.com</t>
+  </si>
+  <si>
+    <t>priyaiyer@hotmail.com</t>
+  </si>
+  <si>
+    <t>lakshmireddy@outlook.com</t>
+  </si>
+  <si>
+    <t>priyankadas@outlook.com</t>
+  </si>
+  <si>
+    <t>nehajoshi@outlook.com</t>
+  </si>
+  <si>
+    <t>sunitakulkarni@hotmail.com</t>
+  </si>
+  <si>
+    <t>anjalijain@hotmail.com</t>
+  </si>
+  <si>
+    <t>rekhamalhotra@gmail.com</t>
+  </si>
+  <si>
+    <t>seemakapoor@outlook.com</t>
+  </si>
+  <si>
+    <t>lakshmimenon@hotmail.com</t>
+  </si>
+  <si>
+    <t>shilparoy@gmail.com</t>
+  </si>
+  <si>
+    <t>poojasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>sunitadeshmukh@outlook.com</t>
+  </si>
+  <si>
+    <t>neelamthakur@yahoo.com</t>
+  </si>
+  <si>
+    <t>sushilabhat@yahoo.com</t>
+  </si>
+  <si>
+    <t>sunitachoudhary@yahoo.com</t>
+  </si>
+  <si>
+    <t>kavitaaggarwal@hotmail.com</t>
+  </si>
+  <si>
+    <t>shalinimishra@yahoo.com</t>
+  </si>
+  <si>
+    <t>neelamverma@yahoo.com</t>
+  </si>
+  <si>
+    <t>sunitagoel@gmail.com</t>
+  </si>
+  <si>
+    <t>poojasaxena@yahoo.com</t>
+  </si>
+  <si>
+    <t>anitakhanna@gmail.com</t>
+  </si>
+  <si>
+    <t>priyabajaj@hotmail.com</t>
+  </si>
+  <si>
+    <t>meeratiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>neelamkaul@outlook.com</t>
+  </si>
+  <si>
+    <t>aarushkumar@yahoo.com</t>
+  </si>
+  <si>
+    <t>tanvisharma@gmail.com</t>
+  </si>
+  <si>
+    <t>raghavgupta@outlook.com</t>
+  </si>
+  <si>
+    <t>snehanair@gmail.com</t>
+  </si>
+  <si>
+    <t>karthikreddy@outlook.com</t>
+  </si>
+  <si>
+    <t>meeraiyer@hotmail.com</t>
+  </si>
+  <si>
+    <t>vihaanpatel@outlook.com</t>
+  </si>
+  <si>
+    <t>ishitadas@outlook.com</t>
+  </si>
+  <si>
+    <t>akshaychoudhary@gmail.com</t>
+  </si>
+  <si>
+    <t>ananyasingh@yahoo.com</t>
+  </si>
+  <si>
+    <t>yashthakur@outlook.com</t>
+  </si>
+  <si>
+    <t>kavyamalhotra@yahoo.com</t>
+  </si>
+  <si>
+    <t>arjunmehta@gmail.com</t>
+  </si>
+  <si>
+    <t>priyarao@yahoo.com</t>
+  </si>
+  <si>
+    <t>adityakapoor@yahoo.com</t>
+  </si>
+  <si>
+    <t>nishaverma@outlook.com</t>
+  </si>
+  <si>
+    <t>siddharthkulkarni@hotmail.com</t>
+  </si>
+  <si>
+    <t>poojajoshi@hotmail.com</t>
+  </si>
+  <si>
+    <t>vedantbhatia@hotmail.com</t>
+  </si>
+  <si>
+    <t>shrutisaxena@hotmail.com</t>
+  </si>
+  <si>
+    <t>rohanjain@yahoo.com</t>
+  </si>
+  <si>
+    <t>aditiaggarwal@hotmail.com</t>
+  </si>
+  <si>
+    <t>sahilmenon@hotmail.com</t>
+  </si>
+  <si>
+    <t>trishapillai@gmail.com</t>
+  </si>
+  <si>
+    <t>abhinavdeshmukh@hotmail.com</t>
+  </si>
+  <si>
+    <t>riyaroy@gmail.com</t>
+  </si>
+  <si>
+    <t>shivamtiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>ishaankaul@gmail.com</t>
+  </si>
+  <si>
+    <t>saanvibajaj@hotmail.com</t>
+  </si>
+  <si>
+    <t>varungoel@hotmail.com</t>
+  </si>
+  <si>
+    <t>arnavsinha@gmail.com</t>
+  </si>
+  <si>
+    <t>diyareddy@yahoo.com</t>
+  </si>
+  <si>
+    <t>harshchatterjee@gmail.com</t>
+  </si>
+  <si>
+    <t>lavanyarao@gmail.com</t>
+  </si>
+  <si>
+    <t>manavnair@hotmail.com</t>
+  </si>
+  <si>
+    <t>aishakapoor@outlook.com</t>
+  </si>
+  <si>
+    <t>rajatmenon@outlook.com</t>
+  </si>
+  <si>
+    <t>sanyaiyer@gmail.com</t>
+  </si>
+  <si>
+    <t>pranavbhat@yahoo.com</t>
+  </si>
+  <si>
+    <t>simranmishra@gmail.com</t>
+  </si>
+  <si>
+    <t>krishdesai@outlook.com</t>
+  </si>
+  <si>
+    <t>nehakulkarni@gmail.com</t>
+  </si>
+  <si>
+    <t>atharvjoshi@yahoo.com</t>
+  </si>
+  <si>
+    <t>radhikaverma@yahoo.com</t>
+  </si>
+  <si>
+    <t>karangupta@gmail.com</t>
+  </si>
+  <si>
+    <t>ishikathakur@hotmail.com</t>
+  </si>
+  <si>
+    <t>arpitsaxena@outlook.com</t>
+  </si>
+  <si>
+    <t>tanishakaul@outlook.com</t>
+  </si>
+  <si>
+    <t>vedikadas@yahoo.com</t>
+  </si>
+  <si>
+    <t>nitinsharma@outlook.com</t>
+  </si>
+  <si>
+    <t>akritimehta@yahoo.com</t>
+  </si>
+  <si>
+    <t>sauravtiwari@gmail.com</t>
+  </si>
+  <si>
+    <t>kiaramalhotra@gmail.com</t>
+  </si>
+  <si>
+    <t>omkarchoudhary@yahoo.com</t>
+  </si>
+  <si>
+    <t>anjalipandey@gmail.com</t>
+  </si>
+  <si>
+    <t>dhruvmahajan@outlook.com</t>
+  </si>
+  <si>
+    <t>snehalbansal@outlook.com</t>
+  </si>
+  <si>
+    <t>advaitpillai@hotmail.com</t>
+  </si>
+  <si>
+    <t>pallavisingh@yahoo.com</t>
+  </si>
+  <si>
+    <t>yuvrajahuja@gmail.com</t>
+  </si>
+  <si>
+    <t>poonamk@yahoo.com</t>
+  </si>
+  <si>
+    <t>nehas@outlook.com</t>
+  </si>
+  <si>
+    <t>komalg@yahoo.com</t>
+  </si>
+  <si>
+    <t>meeran@gmail.com</t>
+  </si>
+  <si>
+    <t>anjanar@outlook.com</t>
+  </si>
+  <si>
+    <t>lakshmii@yahoo.com</t>
+  </si>
+  <si>
+    <t>snehap@outlook.com</t>
+  </si>
+  <si>
+    <t>priyad@yahoo.com</t>
+  </si>
+  <si>
+    <t>sunitac@yahoo.com</t>
+  </si>
+  <si>
+    <t>poojas@yahoo.com</t>
+  </si>
+  <si>
+    <t>kavitat@yahoo.com</t>
+  </si>
+  <si>
+    <t>priyam@outlook.com</t>
+  </si>
+  <si>
+    <t>aartim@yahoo.com</t>
+  </si>
+  <si>
+    <t>shalinir@gmail.com</t>
+  </si>
+  <si>
+    <t>neelamk@hotmail.com</t>
+  </si>
+  <si>
+    <t>sumanv@outlook.com</t>
+  </si>
+  <si>
+    <t>ashak@gmail.com</t>
+  </si>
+  <si>
+    <t>seemaj@gmail.com</t>
+  </si>
+  <si>
+    <t>anjalib@outlook.com</t>
+  </si>
+  <si>
+    <t>rekhas@yahoo.com</t>
+  </si>
+  <si>
+    <t>sushilaj@gmail.com</t>
+  </si>
+  <si>
+    <t>poojaa@hotmail.com</t>
+  </si>
+  <si>
+    <t>anitham@hotmail.com</t>
+  </si>
+  <si>
+    <t>deepap@outlook.com</t>
+  </si>
+  <si>
+    <t>priyad@outlook.com</t>
+  </si>
+  <si>
+    <t>kavitar@hotmail.com</t>
+  </si>
+  <si>
+    <t>sunitat@yahoo.com</t>
+  </si>
+  <si>
+    <t>meerak@outlook.com</t>
+  </si>
+  <si>
+    <t>preetig@yahoo.com</t>
+  </si>
+  <si>
+    <t>nehas@yahoo.com</t>
+  </si>
+  <si>
+    <t>lakshmir@gmail.com</t>
+  </si>
+  <si>
+    <t>smitac@outlook.com</t>
+  </si>
+  <si>
+    <t>sushilar@yahoo.com</t>
+  </si>
+  <si>
+    <t>meenan@yahoo.com</t>
+  </si>
+  <si>
+    <t>neelamk@yahoo.com</t>
+  </si>
+  <si>
+    <t>sreejam@hotmail.com</t>
+  </si>
+  <si>
+    <t>rekhai@gmail.com</t>
+  </si>
+  <si>
+    <t>poojab@yahoo.com</t>
+  </si>
+  <si>
+    <t>sunitam@hotmail.com</t>
+  </si>
+  <si>
+    <t>neelamd@yahoo.com</t>
+  </si>
+  <si>
+    <t>aartik@outlook.com</t>
+  </si>
+  <si>
+    <t>priyaj@gmail.com</t>
+  </si>
+  <si>
+    <t>sunitav@gmail.com</t>
+  </si>
+  <si>
+    <t>preetig@outlook.com</t>
+  </si>
+  <si>
+    <t>neelamt@hotmail.com</t>
+  </si>
+  <si>
+    <t>meenals@gmail.com</t>
+  </si>
+  <si>
+    <t>nehak@outlook.com</t>
+  </si>
+  <si>
+    <t>sunitad@hotmail.com</t>
+  </si>
+  <si>
+    <t>simrans@yahoo.com</t>
+  </si>
+  <si>
+    <t>poojam@yahoo.com</t>
+  </si>
+  <si>
+    <t>sumant@outlook.com</t>
+  </si>
+  <si>
+    <t>priyam@gmail.com</t>
+  </si>
+  <si>
+    <t>shilpac@yahoo.com</t>
+  </si>
+  <si>
+    <t>geetap@gmail.com</t>
+  </si>
+  <si>
+    <t>sunitam@outlook.com</t>
+  </si>
+  <si>
+    <t>rekhab@hotmail.com</t>
+  </si>
+  <si>
+    <t>anjalip@hotmail.com</t>
+  </si>
+  <si>
+    <t>neelams@gmail.com</t>
+  </si>
+  <si>
+    <t>sushilaa@outlook.com</t>
+  </si>
+  <si>
+    <t>LB Nagar</t>
+  </si>
+  <si>
+    <t>Birla Mandir</t>
+  </si>
+  <si>
+    <t>Wonderla Amusement Park</t>
+  </si>
+  <si>
+    <t>Ramoji Film City</t>
+  </si>
+  <si>
+    <t>Chowmahalla Palace</t>
+  </si>
+  <si>
+    <t>Jubilee Hills</t>
+  </si>
+  <si>
+    <t>HITEC City</t>
+  </si>
+  <si>
+    <t>Golconda Fort</t>
+  </si>
+  <si>
+    <t>Charminar</t>
+  </si>
+  <si>
+    <t>Gachibowli</t>
+  </si>
+  <si>
+    <t>NTR Gardens</t>
+  </si>
+  <si>
+    <t>Shilparamam</t>
+  </si>
+  <si>
+    <t>Snow World</t>
+  </si>
+  <si>
+    <t>Falaknuma Palace</t>
+  </si>
+  <si>
+    <t>Necklace Road</t>
+  </si>
+  <si>
+    <t>Paigah Tombs</t>
+  </si>
+  <si>
+    <t>Salar Jung Museum</t>
+  </si>
+  <si>
+    <t>Manikonda</t>
+  </si>
+  <si>
+    <t>Kukatpally</t>
+  </si>
+  <si>
+    <t>Banjara Hills</t>
+  </si>
+  <si>
+    <t>Ameerpet</t>
+  </si>
+  <si>
+    <t>Qutb Shahi Tombs</t>
+  </si>
+  <si>
+    <t>Hussain Sagar Lake</t>
+  </si>
+  <si>
+    <t>KBR National Park</t>
+  </si>
+  <si>
+    <t>Begumpet</t>
+  </si>
+  <si>
+    <t>Durgam Cheruvu</t>
+  </si>
+  <si>
+    <t>Lumbini Park</t>
+  </si>
+  <si>
+    <t>Purani Haveli</t>
+  </si>
+  <si>
+    <t>Mecca Masjid</t>
+  </si>
+  <si>
+    <t>Dilsukhnagar</t>
+  </si>
+  <si>
+    <t>Tarnaka</t>
+  </si>
+  <si>
+    <t>Nagole</t>
+  </si>
+  <si>
+    <t>Uppal</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +2286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1527,6 +2295,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1848,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FEEA0-120C-493B-975F-76247FE4532E}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,16 +2638,18 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1885,859 +2661,1297 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>473</v>
-      </c>
-      <c r="L1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>111001</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4">
         <v>39097</v>
       </c>
       <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H2">
         <v>8134210901</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J2">
+        <v>7963068247</v>
+      </c>
+      <c r="K2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2">
+        <v>9505560591</v>
+      </c>
+      <c r="M2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>111002</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="4">
         <v>39136</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H3">
         <v>8094614906</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>475</v>
+      </c>
+      <c r="J3">
+        <v>7151204994</v>
+      </c>
+      <c r="K3" t="s">
+        <v>553</v>
+      </c>
+      <c r="L3">
+        <v>8155934035</v>
+      </c>
+      <c r="M3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>111003</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4">
         <v>38786</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H4">
         <v>8989486321</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4">
+        <v>8950013558</v>
+      </c>
+      <c r="K4" t="s">
+        <v>554</v>
+      </c>
+      <c r="L4">
+        <v>8003686202</v>
+      </c>
+      <c r="M4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>111004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4">
         <v>39200</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H5">
         <v>8592757437</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5">
+        <v>7837340585</v>
+      </c>
+      <c r="K5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L5">
+        <v>9200205843</v>
+      </c>
+      <c r="M5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>111005</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" s="4">
         <v>38842</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H6">
         <v>8616122932</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J6">
+        <v>7804181104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>556</v>
+      </c>
+      <c r="L6">
+        <v>8728439298</v>
+      </c>
+      <c r="M6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>111006</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4">
         <v>39245</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H7">
         <v>9967125322</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J7">
+        <v>7505062386</v>
+      </c>
+      <c r="K7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L7">
+        <v>7241952345</v>
+      </c>
+      <c r="M7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>111007</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4">
         <v>38916</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H8">
         <v>7120682958</v>
       </c>
-      <c r="O8" t="s">
+      <c r="I8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J8">
+        <v>7483900648</v>
+      </c>
+      <c r="K8" t="s">
+        <v>558</v>
+      </c>
+      <c r="L8">
+        <v>9258828370</v>
+      </c>
+      <c r="M8" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>111008</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4">
         <v>39303</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H9">
         <v>8559725823</v>
       </c>
-      <c r="O9" t="s">
+      <c r="I9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J9">
+        <v>8085499790</v>
+      </c>
+      <c r="K9" t="s">
+        <v>559</v>
+      </c>
+      <c r="L9">
+        <v>7491839131</v>
+      </c>
+      <c r="M9" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>111009</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4">
         <v>38990</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H10">
         <v>8218805149</v>
       </c>
-      <c r="O10" t="s">
+      <c r="I10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J10">
+        <v>7388447420</v>
+      </c>
+      <c r="K10" t="s">
+        <v>560</v>
+      </c>
+      <c r="L10">
+        <v>8603502399</v>
+      </c>
+      <c r="M10" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>111010</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="4">
         <v>39369</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H11">
         <v>7474712946</v>
       </c>
-      <c r="O11" t="s">
+      <c r="I11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J11">
+        <v>8105733134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>561</v>
+      </c>
+      <c r="L11">
+        <v>7634434607</v>
+      </c>
+      <c r="M11" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>111011</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" s="4">
         <v>39024</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H12">
         <v>7290218138</v>
       </c>
-      <c r="O12" t="s">
+      <c r="I12" t="s">
+        <v>482</v>
+      </c>
+      <c r="J12">
+        <v>8022114822</v>
+      </c>
+      <c r="K12" t="s">
+        <v>562</v>
+      </c>
+      <c r="L12">
+        <v>9267991241</v>
+      </c>
+      <c r="M12" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>111012</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="4">
         <v>39435</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H13">
         <v>7758645249</v>
       </c>
-      <c r="O13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13">
+        <v>7972612404</v>
+      </c>
+      <c r="K13" t="s">
+        <v>563</v>
+      </c>
+      <c r="L13">
+        <v>8127808247</v>
+      </c>
+      <c r="M13" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>111013</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4">
         <v>38742</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H14">
         <v>7008147429</v>
       </c>
-      <c r="O14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>484</v>
+      </c>
+      <c r="J14">
+        <v>9854798481</v>
+      </c>
+      <c r="K14" t="s">
+        <v>564</v>
+      </c>
+      <c r="L14">
+        <v>9610837283</v>
+      </c>
+      <c r="M14" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>111014</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4">
         <v>39120</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H15">
         <v>9998264519</v>
       </c>
-      <c r="O15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>485</v>
+      </c>
+      <c r="J15">
+        <v>7455681457</v>
+      </c>
+      <c r="K15" t="s">
+        <v>565</v>
+      </c>
+      <c r="L15">
+        <v>8414240158</v>
+      </c>
+      <c r="M15" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>111015</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D16" s="4">
         <v>39157</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H16">
         <v>7441327782</v>
       </c>
-      <c r="O16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J16">
+        <v>8720931697</v>
+      </c>
+      <c r="K16" t="s">
+        <v>566</v>
+      </c>
+      <c r="L16">
+        <v>8037434326</v>
+      </c>
+      <c r="M16" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>111016</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D17" s="4">
         <v>38831</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H17">
         <v>7243125483</v>
       </c>
-      <c r="O17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>487</v>
+      </c>
+      <c r="J17">
+        <v>8718985799</v>
+      </c>
+      <c r="K17" t="s">
+        <v>567</v>
+      </c>
+      <c r="L17">
+        <v>9246472983</v>
+      </c>
+      <c r="M17" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>111017</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4">
         <v>39213</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H18">
         <v>7565663000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>488</v>
+      </c>
+      <c r="J18">
+        <v>9932008479</v>
+      </c>
+      <c r="K18" t="s">
+        <v>568</v>
+      </c>
+      <c r="L18">
+        <v>7078695717</v>
+      </c>
+      <c r="M18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>111018</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" s="4">
         <v>38870</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H19">
         <v>8186186857</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J19">
+        <v>9008117966</v>
+      </c>
+      <c r="K19" t="s">
+        <v>569</v>
+      </c>
+      <c r="L19">
+        <v>7832036170</v>
+      </c>
+      <c r="M19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>111019</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4">
         <v>39280</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H20">
         <v>9324294701</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>490</v>
+      </c>
+      <c r="J20">
+        <v>7401612372</v>
+      </c>
+      <c r="K20" t="s">
+        <v>570</v>
+      </c>
+      <c r="L20">
+        <v>7786127545</v>
+      </c>
+      <c r="M20" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>111020</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="4">
         <v>38957</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H21">
         <v>8246140741</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21">
+        <v>8753815024</v>
+      </c>
+      <c r="K21" t="s">
+        <v>571</v>
+      </c>
+      <c r="L21">
+        <v>8335536713</v>
+      </c>
+      <c r="M21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>111021</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>39330</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H22">
         <v>9341671046</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>492</v>
+      </c>
+      <c r="J22">
+        <v>8495083084</v>
+      </c>
+      <c r="K22" t="s">
+        <v>572</v>
+      </c>
+      <c r="L22">
+        <v>8836428438</v>
+      </c>
+      <c r="M22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>111022</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4">
         <v>39003</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H23">
         <v>9047270978</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>493</v>
+      </c>
+      <c r="J23">
+        <v>8783022143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>573</v>
+      </c>
+      <c r="L23">
+        <v>8137413986</v>
+      </c>
+      <c r="M23" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>111023</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4">
         <v>39406</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H24">
         <v>7324644640</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>7826672498</v>
+      </c>
+      <c r="K24" t="s">
+        <v>574</v>
+      </c>
+      <c r="L24">
+        <v>9142007284</v>
+      </c>
+      <c r="M24" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>111024</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4">
         <v>39057</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H25">
         <v>9546127540</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>494</v>
+      </c>
+      <c r="J25">
+        <v>7202828698</v>
+      </c>
+      <c r="K25" t="s">
+        <v>575</v>
+      </c>
+      <c r="L25">
+        <v>7323650570</v>
+      </c>
+      <c r="M25" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>111025</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4">
         <v>38732</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H26">
         <v>7847552478</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>495</v>
+      </c>
+      <c r="J26">
+        <v>9452726758</v>
+      </c>
+      <c r="K26" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26">
+        <v>7782972276</v>
+      </c>
+      <c r="M26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>111026</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D27" s="4">
         <v>39135</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H27">
         <v>7884512874</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>496</v>
+      </c>
+      <c r="J27">
+        <v>7996086450</v>
+      </c>
+      <c r="K27" t="s">
+        <v>577</v>
+      </c>
+      <c r="L27">
+        <v>8569063823</v>
+      </c>
+      <c r="M27" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>111027</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="4">
         <v>38784</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H28">
         <v>7484934734</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>497</v>
+      </c>
+      <c r="J28">
+        <v>8808532043</v>
+      </c>
+      <c r="K28" t="s">
+        <v>578</v>
+      </c>
+      <c r="L28">
+        <v>7918811858</v>
+      </c>
+      <c r="M28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>111028</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4">
         <v>39199</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H29">
         <v>7967420456</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>498</v>
+      </c>
+      <c r="J29">
+        <v>7970704914</v>
+      </c>
+      <c r="K29" t="s">
+        <v>579</v>
+      </c>
+      <c r="L29">
+        <v>9258021386</v>
+      </c>
+      <c r="M29" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>111029</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" s="4">
         <v>38841</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H30">
         <v>8798490302</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30">
+        <v>7309043611</v>
+      </c>
+      <c r="K30" t="s">
+        <v>580</v>
+      </c>
+      <c r="L30">
+        <v>7668912954</v>
+      </c>
+      <c r="M30" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>111030</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4">
         <v>39254</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G31" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H31">
         <v>8836967739</v>
+      </c>
+      <c r="I31" t="s">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <v>8590361782</v>
+      </c>
+      <c r="K31" t="s">
+        <v>581</v>
+      </c>
+      <c r="L31">
+        <v>8475646068</v>
+      </c>
+      <c r="M31" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -2759,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F104244-6518-43EE-A7C3-CC4D4FB5ECC2}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,12 +3989,18 @@
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2792,814 +4012,1267 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>112001</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4">
         <v>38541</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H2">
         <v>7135648283</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J2">
+        <v>7364122777</v>
+      </c>
+      <c r="K2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L2">
+        <v>7657783441</v>
+      </c>
+      <c r="M2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>112002</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4">
         <v>38778</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" t="s">
-        <v>389</v>
+        <v>210</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="H3">
         <v>7182585116</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>502</v>
+      </c>
+      <c r="J3">
+        <v>7227243647</v>
+      </c>
+      <c r="K3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L3">
+        <v>8274615269</v>
+      </c>
+      <c r="M3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>112003</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4">
         <v>38995</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" t="s">
-        <v>390</v>
+        <v>212</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="H4">
         <v>7018507458</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4">
+        <v>8630344502</v>
+      </c>
+      <c r="K4" t="s">
+        <v>524</v>
+      </c>
+      <c r="L4">
+        <v>7212646999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>112004</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4">
         <v>38703</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" t="s">
-        <v>391</v>
+        <v>162</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="H5">
         <v>7724612990</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J5">
+        <v>8501123199</v>
+      </c>
+      <c r="K5" t="s">
+        <v>525</v>
+      </c>
+      <c r="L5">
+        <v>7431553625</v>
+      </c>
+      <c r="M5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>112005</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4">
         <v>38152</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H6">
         <v>9938630591</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6">
+        <v>9526463159</v>
+      </c>
+      <c r="K6" t="s">
+        <v>526</v>
+      </c>
+      <c r="L6">
+        <v>8330196543</v>
+      </c>
+      <c r="M6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>112006</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4">
         <v>38773</v>
       </c>
       <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
         <v>140</v>
       </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H7">
         <v>7373622101</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7">
+        <v>8537417934</v>
+      </c>
+      <c r="K7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L7">
+        <v>8237996348</v>
+      </c>
+      <c r="M7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>112007</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4">
         <v>38462</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H8">
         <v>9175983816</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>505</v>
+      </c>
+      <c r="J8">
+        <v>8374439614</v>
+      </c>
+      <c r="K8" t="s">
+        <v>528</v>
+      </c>
+      <c r="L8">
+        <v>7438798986</v>
+      </c>
+      <c r="M8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>112008</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4">
         <v>38300</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H9">
         <v>7477037991</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>506</v>
+      </c>
+      <c r="J9">
+        <v>8415380680</v>
+      </c>
+      <c r="K9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9">
+        <v>9949354218</v>
+      </c>
+      <c r="M9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>112009</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4">
         <v>38323</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H10">
         <v>9093143530</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10">
+        <v>9173224518</v>
+      </c>
+      <c r="K10" t="s">
+        <v>530</v>
+      </c>
+      <c r="L10">
+        <v>9231576852</v>
+      </c>
+      <c r="M10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>112010</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="4">
         <v>38942</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H11">
         <v>8564770078</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J11">
+        <v>9919762404</v>
+      </c>
+      <c r="K11" t="s">
+        <v>531</v>
+      </c>
+      <c r="L11">
+        <v>7810717036</v>
+      </c>
+      <c r="M11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>112011</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4">
         <v>38357</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H12">
         <v>9637915624</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>507</v>
+      </c>
+      <c r="J12">
+        <v>8387848443</v>
+      </c>
+      <c r="K12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L12">
+        <v>8550534602</v>
+      </c>
+      <c r="M12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>112012</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4">
         <v>38655</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H13">
         <v>9361334163</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J13">
+        <v>7463421529</v>
+      </c>
+      <c r="K13" t="s">
+        <v>533</v>
+      </c>
+      <c r="L13">
+        <v>7800428141</v>
+      </c>
+      <c r="M13" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>112013</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4">
         <v>38815</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H14">
         <v>7373761423</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>509</v>
+      </c>
+      <c r="J14">
+        <v>7179622007</v>
+      </c>
+      <c r="K14" t="s">
+        <v>534</v>
+      </c>
+      <c r="L14">
+        <v>7139347498</v>
+      </c>
+      <c r="M14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>112014</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4">
         <v>38045</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H15">
         <v>8920135838</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>510</v>
+      </c>
+      <c r="J15">
+        <v>7782131450</v>
+      </c>
+      <c r="K15" t="s">
+        <v>535</v>
+      </c>
+      <c r="L15">
+        <v>7359852656</v>
+      </c>
+      <c r="M15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>112015</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D16" s="4">
         <v>38494</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H16">
         <v>7293775710</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>511</v>
+      </c>
+      <c r="J16">
+        <v>7055185625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16">
+        <v>7517048463</v>
+      </c>
+      <c r="M16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>112016</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4">
         <v>38910</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H17">
         <v>7419426740</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>512</v>
+      </c>
+      <c r="J17">
+        <v>8440687622</v>
+      </c>
+      <c r="K17" t="s">
+        <v>537</v>
+      </c>
+      <c r="L17">
+        <v>9359023726</v>
+      </c>
+      <c r="M17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>112017</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4">
         <v>38977</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H18">
         <v>7695559351</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J18">
+        <v>8782246041</v>
+      </c>
+      <c r="K18" t="s">
+        <v>538</v>
+      </c>
+      <c r="L18">
+        <v>9252745120</v>
+      </c>
+      <c r="M18" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>112018</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4">
         <v>38117</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H19">
         <v>7564252586</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J19">
+        <v>8769687761</v>
+      </c>
+      <c r="K19" t="s">
+        <v>539</v>
+      </c>
+      <c r="L19">
+        <v>9160892610</v>
+      </c>
+      <c r="M19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>112019</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4">
         <v>38736</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H20">
         <v>7792575288</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>514</v>
+      </c>
+      <c r="J20">
+        <v>9186278216</v>
+      </c>
+      <c r="K20" t="s">
+        <v>540</v>
+      </c>
+      <c r="L20">
+        <v>8351862594</v>
+      </c>
+      <c r="M20" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>112020</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>38436</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H21">
         <v>8823764342</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>515</v>
+      </c>
+      <c r="J21">
+        <v>8095334706</v>
+      </c>
+      <c r="K21" t="s">
+        <v>541</v>
+      </c>
+      <c r="L21">
+        <v>7438488817</v>
+      </c>
+      <c r="M21" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>112021</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4">
         <v>39027</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H22">
         <v>7874331224</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>516</v>
+      </c>
+      <c r="J22">
+        <v>9800813858</v>
+      </c>
+      <c r="K22" t="s">
+        <v>542</v>
+      </c>
+      <c r="L22">
+        <v>7238376661</v>
+      </c>
+      <c r="M22" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>112022</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4">
         <v>38506</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H23">
         <v>7521592543</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>431</v>
+      </c>
+      <c r="J23">
+        <v>7085970630</v>
+      </c>
+      <c r="K23" t="s">
+        <v>543</v>
+      </c>
+      <c r="L23">
+        <v>8092349880</v>
+      </c>
+      <c r="M23" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>112023</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D24" s="4">
         <v>39069</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H24">
         <v>9820290093</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24">
+        <v>8302130410</v>
+      </c>
+      <c r="K24" t="s">
+        <v>544</v>
+      </c>
+      <c r="L24">
+        <v>9985830950</v>
+      </c>
+      <c r="M24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>112024</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D25" s="4">
         <v>38606</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H25">
         <v>8886643576</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>517</v>
+      </c>
+      <c r="J25">
+        <v>7833078614</v>
+      </c>
+      <c r="K25" t="s">
+        <v>545</v>
+      </c>
+      <c r="L25">
+        <v>9059101155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>112025</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4">
         <v>38216</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H26">
         <v>7454127773</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>487</v>
+      </c>
+      <c r="J26">
+        <v>8248885516</v>
+      </c>
+      <c r="K26" t="s">
+        <v>546</v>
+      </c>
+      <c r="L26">
+        <v>9690143346</v>
+      </c>
+      <c r="M26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>112026</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4">
         <v>38280</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H27">
         <v>9721433727</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J27">
+        <v>8494333081</v>
+      </c>
+      <c r="K27" t="s">
+        <v>547</v>
+      </c>
+      <c r="L27">
+        <v>7856578485</v>
+      </c>
+      <c r="M27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>112027</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4">
         <v>38851</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H28">
         <v>8385984954</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>489</v>
+      </c>
+      <c r="J28">
+        <v>8029953752</v>
+      </c>
+      <c r="K28" t="s">
+        <v>548</v>
+      </c>
+      <c r="L28">
+        <v>7690823430</v>
+      </c>
+      <c r="M28" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>112028</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D29" s="4">
         <v>38008</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H29">
         <v>9504109887</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>519</v>
+      </c>
+      <c r="J29">
+        <v>8631202917</v>
+      </c>
+      <c r="K29" t="s">
+        <v>549</v>
+      </c>
+      <c r="L29">
+        <v>7580997246</v>
+      </c>
+      <c r="M29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>112029</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4">
         <v>38893</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H30">
         <v>8275882789</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>520</v>
+      </c>
+      <c r="J30">
+        <v>8015883213</v>
+      </c>
+      <c r="K30" t="s">
+        <v>550</v>
+      </c>
+      <c r="L30">
+        <v>8257707331</v>
+      </c>
+      <c r="M30" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>112030</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4">
         <v>38395</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H31">
         <v>7787742978</v>
+      </c>
+      <c r="I31" t="s">
+        <v>521</v>
+      </c>
+      <c r="J31">
+        <v>7663019671</v>
+      </c>
+      <c r="K31" t="s">
+        <v>551</v>
+      </c>
+      <c r="L31">
+        <v>8632509938</v>
+      </c>
+      <c r="M31" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -3608,18 +5281,21 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{99528A8A-4526-49F5-89D7-9536B2B8DDB9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{2897580C-94BA-44FE-8831-5AC81BB62581}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{51436BF0-FCAD-4CAA-BAB9-15B76CD32524}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{CFF043E7-F05C-4366-A287-053F311F4329}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E49DC7D-BFF7-446A-AAB7-1821DE4A6CF9}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,13 +5307,19 @@
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3649,799 +5331,1267 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>121001</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4">
         <v>38662</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H2">
         <v>8795461480</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J2">
+        <v>7543013145</v>
+      </c>
+      <c r="K2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2">
+        <v>7981816633</v>
+      </c>
+      <c r="M2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>121002</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4">
         <v>38794</v>
       </c>
       <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
         <v>141</v>
       </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
       <c r="G3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H3">
         <v>7551364546</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J3">
+        <v>8104111019</v>
+      </c>
+      <c r="K3" t="s">
+        <v>583</v>
+      </c>
+      <c r="L3">
+        <v>8486930407</v>
+      </c>
+      <c r="M3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>121003</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4">
         <v>38326</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>9088774144</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>644</v>
+      </c>
+      <c r="J4">
+        <v>9954424762</v>
+      </c>
+      <c r="K4" t="s">
+        <v>584</v>
+      </c>
+      <c r="L4">
+        <v>7757065213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>121004</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4">
         <v>38919</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H5">
         <v>9096347959</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>645</v>
+      </c>
+      <c r="J5">
+        <v>7946806352</v>
+      </c>
+      <c r="K5" t="s">
+        <v>585</v>
+      </c>
+      <c r="L5">
+        <v>7525834509</v>
+      </c>
+      <c r="M5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>121005</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4">
         <v>38370</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H6">
         <v>8623376478</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>646</v>
+      </c>
+      <c r="J6">
+        <v>7741450910</v>
+      </c>
+      <c r="K6" t="s">
+        <v>586</v>
+      </c>
+      <c r="L6">
+        <v>9466962550</v>
+      </c>
+      <c r="M6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>121006</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4">
         <v>38514</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H7">
         <v>9276405875</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>647</v>
+      </c>
+      <c r="J7">
+        <v>8781311782</v>
+      </c>
+      <c r="K7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L7">
+        <v>9247671046</v>
+      </c>
+      <c r="M7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>121007</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4">
         <v>38944</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H8">
         <v>8329427917</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>648</v>
+      </c>
+      <c r="J8">
+        <v>7348383971</v>
+      </c>
+      <c r="K8" t="s">
+        <v>588</v>
+      </c>
+      <c r="L8">
+        <v>7619405222</v>
+      </c>
+      <c r="M8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>121008</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4">
         <v>38020</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H9">
         <v>8038655312</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>649</v>
+      </c>
+      <c r="J9">
+        <v>9687302066</v>
+      </c>
+      <c r="K9" t="s">
+        <v>589</v>
+      </c>
+      <c r="L9">
+        <v>7730394476</v>
+      </c>
+      <c r="M9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>121009</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4">
         <v>38727</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H10">
         <v>8684277193</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>650</v>
+      </c>
+      <c r="J10">
+        <v>7564787541</v>
+      </c>
+      <c r="K10" t="s">
+        <v>590</v>
+      </c>
+      <c r="L10">
+        <v>9252429183</v>
+      </c>
+      <c r="M10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>121010</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4">
         <v>38086</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H11">
         <v>9059861872</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>651</v>
+      </c>
+      <c r="J11">
+        <v>8080542255</v>
+      </c>
+      <c r="K11" t="s">
+        <v>591</v>
+      </c>
+      <c r="L11">
+        <v>8586541798</v>
+      </c>
+      <c r="M11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>121011</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4">
         <v>38709</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H12">
         <v>7463263453</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>652</v>
+      </c>
+      <c r="J12">
+        <v>7404606557</v>
+      </c>
+      <c r="K12" t="s">
+        <v>592</v>
+      </c>
+      <c r="L12">
+        <v>7276955289</v>
+      </c>
+      <c r="M12" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>121012</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4">
         <v>38867</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H13">
         <v>9053275574</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>653</v>
+      </c>
+      <c r="J13">
+        <v>7600624320</v>
+      </c>
+      <c r="K13" t="s">
+        <v>593</v>
+      </c>
+      <c r="L13">
+        <v>8395112075</v>
+      </c>
+      <c r="M13" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>121013</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4">
         <v>38475</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H14">
         <v>7285706428</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>654</v>
+      </c>
+      <c r="J14">
+        <v>8754728155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>594</v>
+      </c>
+      <c r="L14">
+        <v>8414197437</v>
+      </c>
+      <c r="M14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>121014</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4">
         <v>38829</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H15">
         <v>8908914659</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>655</v>
+      </c>
+      <c r="J15">
+        <v>7922035866</v>
+      </c>
+      <c r="K15" t="s">
+        <v>595</v>
+      </c>
+      <c r="L15">
+        <v>7436022480</v>
+      </c>
+      <c r="M15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>121015</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4">
         <v>38342</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H16">
         <v>7126782296</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>656</v>
+      </c>
+      <c r="J16">
+        <v>9762284989</v>
+      </c>
+      <c r="K16" t="s">
+        <v>596</v>
+      </c>
+      <c r="L16">
+        <v>8775715055</v>
+      </c>
+      <c r="M16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>121016</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4">
         <v>39007</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H17">
         <v>7506426013</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>657</v>
+      </c>
+      <c r="J17">
+        <v>7509714310</v>
+      </c>
+      <c r="K17" t="s">
+        <v>597</v>
+      </c>
+      <c r="L17">
+        <v>8111622464</v>
+      </c>
+      <c r="M17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>121017</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18" s="4">
         <v>38408</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H18">
         <v>9012604869</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>658</v>
+      </c>
+      <c r="J18">
+        <v>7043226241</v>
+      </c>
+      <c r="K18" t="s">
+        <v>598</v>
+      </c>
+      <c r="L18">
+        <v>7282334638</v>
+      </c>
+      <c r="M18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>121018</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D19" s="4">
         <v>38962</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G19" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H19">
         <v>7869849594</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>659</v>
+      </c>
+      <c r="J19">
+        <v>9033477809</v>
+      </c>
+      <c r="K19" t="s">
+        <v>599</v>
+      </c>
+      <c r="L19">
+        <v>7182450177</v>
+      </c>
+      <c r="M19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>121019</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>38875</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H20">
         <v>9986137345</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>660</v>
+      </c>
+      <c r="J20">
+        <v>9108367456</v>
+      </c>
+      <c r="K20" t="s">
+        <v>600</v>
+      </c>
+      <c r="L20">
+        <v>7129304187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>121020</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
         <v>38009</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H21">
         <v>9592416700</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>661</v>
+      </c>
+      <c r="J21">
+        <v>9380870218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>601</v>
+      </c>
+      <c r="L21">
+        <v>7103809285</v>
+      </c>
+      <c r="M21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>121021</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4">
         <v>38762</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G22" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H22">
         <v>7457132243</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>662</v>
+      </c>
+      <c r="J22">
+        <v>9341824976</v>
+      </c>
+      <c r="K22" t="s">
+        <v>602</v>
+      </c>
+      <c r="L22">
+        <v>9977194940</v>
+      </c>
+      <c r="M22" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>121022</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4">
         <v>38259</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H23">
         <v>7614754848</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>663</v>
+      </c>
+      <c r="J23">
+        <v>9839188396</v>
+      </c>
+      <c r="K23" t="s">
+        <v>603</v>
+      </c>
+      <c r="L23">
+        <v>7079450206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>121023</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D24" s="4">
         <v>38306</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G24" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H24">
         <v>9364566146</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>664</v>
+      </c>
+      <c r="J24">
+        <v>9732052646</v>
+      </c>
+      <c r="K24" t="s">
+        <v>604</v>
+      </c>
+      <c r="L24">
+        <v>9631512082</v>
+      </c>
+      <c r="M24" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>121024</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D25" s="4">
         <v>38424</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H25">
         <v>8860966051</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>665</v>
+      </c>
+      <c r="J25">
+        <v>8569032953</v>
+      </c>
+      <c r="K25" t="s">
+        <v>605</v>
+      </c>
+      <c r="L25">
+        <v>8588285245</v>
+      </c>
+      <c r="M25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>121025</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D26" s="4">
         <v>38541</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G26" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H26">
         <v>8167054870</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>666</v>
+      </c>
+      <c r="J26">
+        <v>9221520292</v>
+      </c>
+      <c r="K26" t="s">
+        <v>606</v>
+      </c>
+      <c r="L26">
+        <v>8628624878</v>
+      </c>
+      <c r="M26" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>121026</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D27" s="4">
         <v>38785</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G27" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H27">
         <v>8240299387</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>667</v>
+      </c>
+      <c r="J27">
+        <v>9963235905</v>
+      </c>
+      <c r="K27" t="s">
+        <v>607</v>
+      </c>
+      <c r="L27">
+        <v>8371105476</v>
+      </c>
+      <c r="M27" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>121027</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4">
         <v>38461</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H28">
         <v>8643076904</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>668</v>
+      </c>
+      <c r="J28">
+        <v>8718381618</v>
+      </c>
+      <c r="K28" t="s">
+        <v>608</v>
+      </c>
+      <c r="L28">
+        <v>7318282327</v>
+      </c>
+      <c r="M28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>121028</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4">
         <v>38992</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H29">
         <v>8865988094</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>669</v>
+      </c>
+      <c r="J29">
+        <v>7100100983</v>
+      </c>
+      <c r="K29" t="s">
+        <v>609</v>
+      </c>
+      <c r="L29">
+        <v>9842103342</v>
+      </c>
+      <c r="M29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>121029</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4">
         <v>38588</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H30">
         <v>8451573371</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>660</v>
+      </c>
+      <c r="J30">
+        <v>9680153903</v>
+      </c>
+      <c r="K30" t="s">
+        <v>610</v>
+      </c>
+      <c r="L30">
+        <v>9937684536</v>
+      </c>
+      <c r="M30" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>121030</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4">
         <v>38074</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H31">
         <v>8524109302</v>
+      </c>
+      <c r="I31" t="s">
+        <v>670</v>
+      </c>
+      <c r="J31">
+        <v>7931476781</v>
+      </c>
+      <c r="K31" t="s">
+        <v>611</v>
+      </c>
+      <c r="L31">
+        <v>7427373986</v>
+      </c>
+      <c r="M31" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -4452,10 +6602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16355DC-1DC5-4802-B0E7-F784DF5E645A}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4467,13 +6617,19 @@
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4485,799 +6641,1267 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>122001</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4">
         <v>38575</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H2">
         <v>9571051562</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2">
+        <v>8851265204</v>
+      </c>
+      <c r="K2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L2">
+        <v>9784041884</v>
+      </c>
+      <c r="M2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>122002</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4">
         <v>38751</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H3">
         <v>7707849266</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J3">
+        <v>9282216897</v>
+      </c>
+      <c r="K3" t="s">
+        <v>613</v>
+      </c>
+      <c r="L3">
+        <v>9823324074</v>
+      </c>
+      <c r="M3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>122003</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4">
         <v>39078</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H4">
         <v>8580652628</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>673</v>
+      </c>
+      <c r="J4">
+        <v>9228380536</v>
+      </c>
+      <c r="K4" t="s">
+        <v>614</v>
+      </c>
+      <c r="L4">
+        <v>7701372982</v>
+      </c>
+      <c r="M4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>122004</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4">
         <v>38632</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H5">
         <v>9609618493</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>674</v>
+      </c>
+      <c r="J5">
+        <v>8643920545</v>
+      </c>
+      <c r="K5" t="s">
+        <v>615</v>
+      </c>
+      <c r="L5">
+        <v>9372919225</v>
+      </c>
+      <c r="M5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>122005</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" s="4">
         <v>38124</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H6">
         <v>9318053759</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J6">
+        <v>7557820846</v>
+      </c>
+      <c r="K6" t="s">
+        <v>616</v>
+      </c>
+      <c r="L6">
+        <v>9639419969</v>
+      </c>
+      <c r="M6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>122006</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4">
         <v>38364</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H7">
         <v>9457980923</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>676</v>
+      </c>
+      <c r="J7">
+        <v>9944915032</v>
+      </c>
+      <c r="K7" t="s">
+        <v>617</v>
+      </c>
+      <c r="L7">
+        <v>7842345812</v>
+      </c>
+      <c r="M7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>122007</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4">
         <v>38969</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H8">
         <v>7680383824</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>677</v>
+      </c>
+      <c r="J8">
+        <v>9291339039</v>
+      </c>
+      <c r="K8" t="s">
+        <v>618</v>
+      </c>
+      <c r="L8">
+        <v>7567063790</v>
+      </c>
+      <c r="M8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>122008</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4">
         <v>38313</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H9">
         <v>9630081560</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>678</v>
+      </c>
+      <c r="J9">
+        <v>8225370421</v>
+      </c>
+      <c r="K9" t="s">
+        <v>619</v>
+      </c>
+      <c r="L9">
+        <v>9154120432</v>
+      </c>
+      <c r="M9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>122009</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4">
         <v>38791</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H10">
         <v>7478223346</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>679</v>
+      </c>
+      <c r="J10">
+        <v>8447197075</v>
+      </c>
+      <c r="K10" t="s">
+        <v>620</v>
+      </c>
+      <c r="L10">
+        <v>8823403926</v>
+      </c>
+      <c r="M10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>122010</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4">
         <v>38556</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H11">
         <v>8429142410</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>680</v>
+      </c>
+      <c r="J11">
+        <v>8217092990</v>
+      </c>
+      <c r="K11" t="s">
+        <v>621</v>
+      </c>
+      <c r="L11">
+        <v>9528976336</v>
+      </c>
+      <c r="M11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>122011</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4">
         <v>38141</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H12">
         <v>8637724637</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>681</v>
+      </c>
+      <c r="J12">
+        <v>7205682460</v>
+      </c>
+      <c r="K12" t="s">
+        <v>622</v>
+      </c>
+      <c r="L12">
+        <v>8935597292</v>
+      </c>
+      <c r="M12" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>122012</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D13" s="4">
         <v>38481</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H13">
         <v>8531475050</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>682</v>
+      </c>
+      <c r="J13">
+        <v>8423055714</v>
+      </c>
+      <c r="K13" t="s">
+        <v>623</v>
+      </c>
+      <c r="L13">
+        <v>9688049165</v>
+      </c>
+      <c r="M13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>122013</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4">
         <v>38825</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G14" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H14">
         <v>9038493651</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>683</v>
+      </c>
+      <c r="J14">
+        <v>8184338507</v>
+      </c>
+      <c r="K14" t="s">
+        <v>624</v>
+      </c>
+      <c r="L14">
+        <v>7131140841</v>
+      </c>
+      <c r="M14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>122014</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D15" s="4">
         <v>38715</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G15" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H15">
         <v>7273588832</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>684</v>
+      </c>
+      <c r="J15">
+        <v>8042056440</v>
+      </c>
+      <c r="K15" t="s">
+        <v>625</v>
+      </c>
+      <c r="L15">
+        <v>7422710875</v>
+      </c>
+      <c r="M15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>122015</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4">
         <v>38954</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H16">
         <v>9328458251</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>685</v>
+      </c>
+      <c r="J16">
+        <v>9180106665</v>
+      </c>
+      <c r="K16" t="s">
+        <v>626</v>
+      </c>
+      <c r="L16">
+        <v>9753144171</v>
+      </c>
+      <c r="M16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>122016</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="4">
         <v>38444</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H17">
         <v>9587977206</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>686</v>
+      </c>
+      <c r="J17">
+        <v>9022962555</v>
+      </c>
+      <c r="K17" t="s">
+        <v>627</v>
+      </c>
+      <c r="L17">
+        <v>9258605727</v>
+      </c>
+      <c r="M17" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>122017</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4">
         <v>39013</v>
       </c>
       <c r="E18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H18">
         <v>7948823477</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>687</v>
+      </c>
+      <c r="J18">
+        <v>9192842324</v>
+      </c>
+      <c r="K18" t="s">
+        <v>628</v>
+      </c>
+      <c r="L18">
+        <v>8395383534</v>
+      </c>
+      <c r="M18" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>122018</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4">
         <v>38016</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H19">
         <v>7893674461</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>688</v>
+      </c>
+      <c r="J19">
+        <v>9150228226</v>
+      </c>
+      <c r="K19" t="s">
+        <v>629</v>
+      </c>
+      <c r="L19">
+        <v>7425364605</v>
+      </c>
+      <c r="M19" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>122019</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4">
         <v>38417</v>
       </c>
       <c r="E20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G20" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H20">
         <v>8748560018</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>689</v>
+      </c>
+      <c r="J20">
+        <v>8455585451</v>
+      </c>
+      <c r="K20" t="s">
+        <v>630</v>
+      </c>
+      <c r="L20">
+        <v>9622461091</v>
+      </c>
+      <c r="M20" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>122020</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4">
         <v>38917</v>
       </c>
       <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
         <v>142</v>
       </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
       <c r="G21" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H21">
         <v>8021269794</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>690</v>
+      </c>
+      <c r="J21">
+        <v>8684171567</v>
+      </c>
+      <c r="K21" t="s">
+        <v>631</v>
+      </c>
+      <c r="L21">
+        <v>7303213115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>122021</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" s="4">
         <v>38028</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H22">
         <v>7686028996</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>691</v>
+      </c>
+      <c r="J22">
+        <v>7954907257</v>
+      </c>
+      <c r="K22" t="s">
+        <v>632</v>
+      </c>
+      <c r="L22">
+        <v>9084958188</v>
+      </c>
+      <c r="M22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>122022</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="4">
         <v>38660</v>
       </c>
       <c r="E23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H23">
         <v>9445175155</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>692</v>
+      </c>
+      <c r="J23">
+        <v>9826997163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>633</v>
+      </c>
+      <c r="L23">
+        <v>7849844839</v>
+      </c>
+      <c r="M23" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>122023</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D24" s="4">
         <v>38242</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H24">
         <v>9118719218</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>693</v>
+      </c>
+      <c r="J24">
+        <v>7183840820</v>
+      </c>
+      <c r="K24" t="s">
+        <v>634</v>
+      </c>
+      <c r="L24">
+        <v>7573414963</v>
+      </c>
+      <c r="M24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>122024</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4">
         <v>38842</v>
       </c>
       <c r="E25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G25" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H25">
         <v>8908781934</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>694</v>
+      </c>
+      <c r="J25">
+        <v>7690724146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>635</v>
+      </c>
+      <c r="L25">
+        <v>7594556550</v>
+      </c>
+      <c r="M25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>122025</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4">
         <v>38741</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G26" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H26">
         <v>9188572373</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>695</v>
+      </c>
+      <c r="J26">
+        <v>7738910956</v>
+      </c>
+      <c r="K26" t="s">
+        <v>636</v>
+      </c>
+      <c r="L26">
+        <v>7292690921</v>
+      </c>
+      <c r="M26" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>122026</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D27" s="4">
         <v>38616</v>
       </c>
       <c r="E27" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H27">
         <v>9458351033</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>696</v>
+      </c>
+      <c r="J27">
+        <v>7042844560</v>
+      </c>
+      <c r="K27" t="s">
+        <v>637</v>
+      </c>
+      <c r="L27">
+        <v>9212186357</v>
+      </c>
+      <c r="M27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>122027</v>
       </c>
       <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>132</v>
       </c>
       <c r="D28" s="4">
         <v>38882</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G28" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H28">
         <v>9149347072</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>697</v>
+      </c>
+      <c r="J28">
+        <v>9579737191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>638</v>
+      </c>
+      <c r="L28">
+        <v>8377429497</v>
+      </c>
+      <c r="M28" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>122028</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D29" s="4">
         <v>38410</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G29" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H29">
         <v>8616193798</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>698</v>
+      </c>
+      <c r="J29">
+        <v>7656175138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>639</v>
+      </c>
+      <c r="L29">
+        <v>7743380309</v>
+      </c>
+      <c r="M29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>122029</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D30" s="4">
         <v>39037</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F30" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H30">
         <v>9002062942</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>699</v>
+      </c>
+      <c r="J30">
+        <v>9015473276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>640</v>
+      </c>
+      <c r="L30">
+        <v>9183986472</v>
+      </c>
+      <c r="M30" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>122030</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D31" s="4">
         <v>38261</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G31" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H31">
         <v>7787742978</v>
+      </c>
+      <c r="I31" t="s">
+        <v>700</v>
+      </c>
+      <c r="J31">
+        <v>9723001727</v>
+      </c>
+      <c r="K31" t="s">
+        <v>641</v>
+      </c>
+      <c r="L31">
+        <v>7388346027</v>
+      </c>
+      <c r="M31" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/student db.xlsx
+++ b/student db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF138DD8-C088-4C70-B707-48559B67BC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC15A2B-4BCE-49E8-91C5-3331C55C8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" activeTab="1" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
   </bookViews>
   <sheets>
     <sheet name="11-A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="738">
   <si>
     <t>Name</t>
   </si>
@@ -2239,6 +2239,18 @@
   </si>
   <si>
     <t>Uppal</t>
+  </si>
+  <si>
+    <t>Fathers Name</t>
+  </si>
+  <si>
+    <t>Mothers Name</t>
+  </si>
+  <si>
+    <t>Mothers Email Address</t>
+  </si>
+  <si>
+    <t>Mothers Phone Number</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FEEA0-120C-493B-975F-76247FE4532E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -3973,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F104244-6518-43EE-A7C3-CC4D4FB5ECC2}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3998,7 +4010,7 @@
     <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -4012,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>734</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>735</v>
       </c>
       <c r="G1" t="s">
         <v>472</v>
@@ -4024,10 +4036,10 @@
         <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>470</v>
+        <v>736</v>
       </c>
       <c r="J1" t="s">
-        <v>471</v>
+        <v>737</v>
       </c>
       <c r="K1" t="s">
         <v>468</v>
@@ -4038,14 +4050,8 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
-        <v>467</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>112001</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>112002</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>112003</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>112004</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>112005</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>112006</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>112007</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>112008</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>112009</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>112010</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>112011</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>112012</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>112013</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>112014</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>112015</v>
       </c>

--- a/student db.xlsx
+++ b/student db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AcadEase_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC15A2B-4BCE-49E8-91C5-3331C55C8565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973EB2-1728-404C-83E7-FF7D28250091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="718" activeTab="1" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="718" xr2:uid="{3728D7EE-838D-4B27-BB3D-4FD709A86929}"/>
   </bookViews>
   <sheets>
     <sheet name="11-A" sheetId="1" r:id="rId1"/>
@@ -2636,30 +2636,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FEEA0-120C-493B-975F-76247FE4532E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>111001</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>111002</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>111003</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>111004</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>111005</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>111006</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>111007</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>111008</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>111009</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>111010</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>111011</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>111012</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>111013</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>111014</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>111015</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>111016</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>111017</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>111018</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>111019</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>111020</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>111021</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>111022</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>111023</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>111024</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>111025</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>111026</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>111027</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>111028</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>111029</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>111030</v>
       </c>
@@ -3987,30 +3987,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F104244-6518-43EE-A7C3-CC4D4FB5ECC2}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>112001</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>112002</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>112003</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>112004</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>112005</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>112006</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>112007</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>112008</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>112009</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>112010</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>112011</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>112012</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>112013</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>112014</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>112015</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>112016</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>112017</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>112018</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>112019</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>112020</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>112021</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>112022</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>112023</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>112024</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>112025</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>112026</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>112027</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>112028</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>112029</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>112030</v>
       </c>
@@ -5282,7 +5282,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D31">
+  <sortState ref="D2:D31">
     <sortCondition ref="D2:D31" customList="Sunday,Monday,Tuesday,Wednesday,Thursday,Friday,Saturday"/>
   </sortState>
   <hyperlinks>
@@ -5304,26 +5304,26 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>121001</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>121002</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>121003</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>121004</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>121005</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>121006</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>121007</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>121008</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>121009</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>121010</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>121011</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>121012</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>121013</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>121014</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>121015</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>121016</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>121017</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>121018</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>121019</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>121020</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>121021</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>121022</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>121023</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>121024</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>121025</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>121026</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>121027</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>121028</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>121029</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>121030</v>
       </c>
@@ -6614,26 +6614,26 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>122001</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>122002</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>122003</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>122004</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>122005</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>122006</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>122007</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>122008</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>122009</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>122010</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>122011</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>122012</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>122013</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>122014</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>122015</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>122016</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>122017</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>122018</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>122019</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>122020</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>122021</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>122022</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>122023</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>122024</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>122025</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>122026</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>122027</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>122028</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>122029</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>122030</v>
       </c>
